--- a/结果/resob11192045.xlsx
+++ b/结果/resob11192045.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3DF314D4-3C0E-46A0-A777-DB0157A4ACAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A573496-0D4A-4FB1-970A-0127AF9A9C23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6600" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6600" windowHeight="9450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -66,6 +67,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -182,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -203,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -511,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -2358,4 +2363,460 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9216EFBC-A5E8-43D6-B366-4246727DD885}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="10">
+        <v>100</v>
+      </c>
+      <c r="B1" s="10">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10">
+        <v>30</v>
+      </c>
+      <c r="D1" s="10">
+        <v>100</v>
+      </c>
+      <c r="E1" s="10">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10">
+        <v>50</v>
+      </c>
+      <c r="F2" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>100</v>
+      </c>
+      <c r="F3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>25</v>
+      </c>
+      <c r="B4" s="10">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>200</v>
+      </c>
+      <c r="B6" s="10">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>200</v>
+      </c>
+      <c r="E6" s="10">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10">
+        <v>200</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>100</v>
+      </c>
+      <c r="B8" s="10">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10">
+        <v>100</v>
+      </c>
+      <c r="E8" s="10">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10">
+        <v>200</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>100</v>
+      </c>
+      <c r="F10" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>200</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>200</v>
+      </c>
+      <c r="F11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>200</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
+      <c r="F12" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10">
+        <v>50</v>
+      </c>
+      <c r="C13" s="10">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10">
+        <v>50</v>
+      </c>
+      <c r="F13" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10">
+        <v>100</v>
+      </c>
+      <c r="C14" s="10">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10">
+        <v>100</v>
+      </c>
+      <c r="F14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10">
+        <v>200</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <v>10</v>
+      </c>
+      <c r="E15" s="10">
+        <v>200</v>
+      </c>
+      <c r="F15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10">
+        <v>200</v>
+      </c>
+      <c r="C16" s="10">
+        <v>10</v>
+      </c>
+      <c r="D16" s="10">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10">
+        <v>200</v>
+      </c>
+      <c r="F16" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10">
+        <v>100</v>
+      </c>
+      <c r="C17" s="10">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10">
+        <v>100</v>
+      </c>
+      <c r="F17" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>10</v>
+      </c>
+      <c r="B18" s="10">
+        <v>100</v>
+      </c>
+      <c r="C18" s="10">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10">
+        <v>100</v>
+      </c>
+      <c r="F18" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>10</v>
+      </c>
+      <c r="B19" s="10">
+        <v>25</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10">
+        <v>25</v>
+      </c>
+      <c r="F19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>100</v>
+      </c>
+      <c r="C20" s="10">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10">
+        <v>100</v>
+      </c>
+      <c r="F20" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>200</v>
+      </c>
+      <c r="B21" s="10">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10">
+        <v>200</v>
+      </c>
+      <c r="E21" s="10">
+        <v>50</v>
+      </c>
+      <c r="F21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10">
+        <v>200</v>
+      </c>
+      <c r="C22" s="10">
+        <v>10</v>
+      </c>
+      <c r="D22" s="10">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10">
+        <v>200</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>